--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,15 +49,9 @@
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -73,97 +67,106 @@
     <t>stop</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>increase</t>
@@ -527,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7363013698630136</v>
+        <v>0.7636986301369864</v>
       </c>
       <c r="C3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D3">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,37 +649,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>0.9</v>
+      </c>
+      <c r="L5">
+        <v>108</v>
+      </c>
+      <c r="M5">
+        <v>108</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>12</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L5">
-        <v>32</v>
-      </c>
-      <c r="M5">
-        <v>32</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.631578947368421</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="L6">
         <v>23</v>
       </c>
-      <c r="K6">
-        <v>0.8660714285714286</v>
-      </c>
-      <c r="L6">
-        <v>97</v>
-      </c>
       <c r="M6">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5555555555555556</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.864406779661017</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5405405405405406</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4074074074074074</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8302872062663186</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L9">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="M9">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3624031007751938</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C10">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>329</v>
+        <v>115</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.7963446475195822</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>305</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +999,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3220338983050847</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8048780487804879</v>
+        <v>0.7890625</v>
       </c>
       <c r="L11">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,87 +1049,63 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2281879194630873</v>
+        <v>0.008061915511125443</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>115</v>
+        <v>3076</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L12">
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0992063492063492</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>227</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.7692307692307693</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1164,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.7676056338028169</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1190,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1216,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1242,12 +1221,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K18">
         <v>0.7407407407407407</v>
@@ -1273,16 +1252,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1294,12 +1273,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20">
         <v>0.696969696969697</v>
@@ -1325,16 +1304,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1351,16 +1330,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1372,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.6323529411764706</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1398,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.5941422594142259</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L24">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="M24">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1424,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1450,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.55</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1476,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.5457627118644067</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="M27">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1502,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1528,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.5425531914893617</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1554,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.575</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1580,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5076923076923077</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1606,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4831460674157304</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L32">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1632,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.3205128205128205</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1658,32 +1637,84 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L34">
+        <v>19</v>
+      </c>
+      <c r="M34">
+        <v>19</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K34">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L34">
+      <c r="K35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="L35">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36">
+        <v>0.3055555555555556</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
         <v>23</v>
       </c>
-      <c r="M34">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
+      <c r="N36">
+        <v>0.96</v>
+      </c>
+      <c r="O36">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
         <v>50</v>
       </c>
     </row>
